--- a/medicine/Enfance/Itsuki_no_komoriuta/Itsuki_no_komoriuta.xlsx
+++ b/medicine/Enfance/Itsuki_no_komoriuta/Itsuki_no_komoriuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La berceuse d’Itsuki (en japonais : 五木の子守唄 Itsuki no komoriuta) est une berceuse japonaise, typique des chansons folkloriques de l’île de Kyūshū. Elle est nommée d’après le village d’Itsuki, dans le sud-ouest de cette île. 
 </t>
@@ -511,11 +523,12 @@
           <t>Paroles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La version la plus répandue diffère de la version originale de cette berceuse, chantée dans le dialecte d'Itsuki. 
-Version répandue
-Version originelle</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La version la plus répandue diffère de la version originale de cette berceuse, chantée dans le dialecte d'Itsuki. 
+</t>
         </is>
       </c>
     </row>
@@ -543,13 +556,85 @@
           <t>Le mythe d'Itsukino komoriuta</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mythe d'Itsuki no komori uta est discuté[1] . 
-Découverte
-La berceuse est redécouverte par un instituteur en 1935, longtemps après que la chanson a cessé d'être chantée.
-Une berceuse des nourrices des familles pauvres
-Selon une croyance, les nourrices des familles pauvres chantaient cette berceuse. En effet, Itsuki se situait près de Gokanosho, où le peuple Heike s'installa après sa défaite de la guerre Genji-Heike, durant la période Heian. Plus tard, le shogunat Kamakura envoya des familles de samouraïs Genji pour les surveiller, créant ainsi les riches familles Genji et les familles Heike, plus pauvres. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mythe d'Itsuki no komori uta est discuté . 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Itsuki_no_komoriuta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Itsuki_no_komoriuta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le mythe d'Itsukino komoriuta</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Découverte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La berceuse est redécouverte par un instituteur en 1935, longtemps après que la chanson a cessé d'être chantée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Itsuki_no_komoriuta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Itsuki_no_komoriuta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le mythe d'Itsukino komoriuta</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Une berceuse des nourrices des familles pauvres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une croyance, les nourrices des familles pauvres chantaient cette berceuse. En effet, Itsuki se situait près de Gokanosho, où le peuple Heike s'installa après sa défaite de la guerre Genji-Heike, durant la période Heian. Plus tard, le shogunat Kamakura envoya des familles de samouraïs Genji pour les surveiller, créant ainsi les riches familles Genji et les familles Heike, plus pauvres. 
 </t>
         </is>
       </c>
